--- a/AMZN_Model.xlsx
+++ b/AMZN_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAAA94C-B01A-40C8-9223-E9C66A3DEB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0645F1-A55E-4D89-AEEE-923FC2726486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Price</t>
   </si>
@@ -551,9 +551,6 @@
   </si>
   <si>
     <t>Revenue CC</t>
-  </si>
-  <si>
-    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -1135,19 +1132,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>123</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1150,7 @@
         <v>167.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>1747272.7429785002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -1192,7 +1187,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -1206,7 +1201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1216,18 +1211,15 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{99671CB1-8373-4029-BCD6-CE07633EB17B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1236,25 +1228,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
   <dimension ref="A1:EG101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BX18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AK32" sqref="AK32:AK33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="3"/>
-    <col min="74" max="75" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="26" width="9.1328125" style="3"/>
+    <col min="74" max="75" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1542,7 +1534,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1650,7 +1642,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1726,7 +1718,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1834,7 +1826,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1872,7 +1864,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1910,7 +1902,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2058,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2198,7 +2190,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2330,7 +2322,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2454,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2594,7 +2586,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2726,7 +2718,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2852,11 +2844,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.35">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2963,7 +2955,7 @@
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3070,7 +3062,7 @@
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:137" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3315,7 @@
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3469,7 @@
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3631,7 +3623,7 @@
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -3816,7 +3808,7 @@
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3962,7 @@
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4124,7 +4116,7 @@
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4271,7 @@
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -4464,7 +4456,7 @@
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
@@ -4649,7 +4641,7 @@
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -4833,7 +4825,7 @@
         <v>37742.06764211796</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -5018,7 +5010,7 @@
         <v>210307.32608314857</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5189,7 @@
         <v>31546.098912472284</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -5630,7 +5622,7 @@
         <v>2033950.4276369016</v>
       </c>
     </row>
-    <row r="33" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -5943,7 +5935,7 @@
         <v>59.775511064052829</v>
       </c>
     </row>
-    <row r="34" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -6269,7 +6261,7 @@
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:119" s="11" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -6517,7 +6509,7 @@
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:119" s="11" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
         <v>122</v>
       </c>
@@ -6593,7 +6585,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
@@ -6717,7 +6709,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
@@ -6841,7 +6833,7 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
@@ -6995,7 +6987,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
@@ -7149,7 +7141,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
@@ -7303,7 +7295,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
@@ -7457,7 +7449,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
@@ -7626,7 +7618,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:119" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -7828,7 +7820,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:119" x14ac:dyDescent="0.35">
       <c r="BY46" t="s">
         <v>75</v>
       </c>
@@ -7836,7 +7828,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:119" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -7965,7 +7957,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="48" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
@@ -8061,7 +8053,7 @@
         <v>8701159.2259440068</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
@@ -8136,7 +8128,7 @@
         <v>836.1171087380576</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
@@ -8207,7 +8199,7 @@
         <v>50106</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
@@ -8278,7 +8270,7 @@
         <v>220717</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -8349,7 +8341,7 @@
         <v>74575</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
         <v>66</v>
       </c>
@@ -8421,7 +8413,7 @@
         <v>22879</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
@@ -8492,7 +8484,7 @@
         <v>63340</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
@@ -8581,7 +8573,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>70</v>
       </c>
@@ -8652,7 +8644,7 @@
         <v>81817</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
@@ -8723,7 +8715,7 @@
         <v>60351</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
@@ -8794,7 +8786,7 @@
         <v>16004</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>65</v>
       </c>
@@ -8865,7 +8857,7 @@
         <v>78084</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8928,7 @@
         <v>54889</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
@@ -9007,7 +8999,7 @@
         <v>27226</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
@@ -9078,7 +9070,7 @@
         <v>236447</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
@@ -9167,7 +9159,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
@@ -9256,7 +9248,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
@@ -9327,7 +9319,7 @@
         <v>13485</v>
       </c>
     </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
@@ -9398,7 +9390,7 @@
         <v>12038</v>
       </c>
     </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="2" t="s">
         <v>88</v>
       </c>
@@ -9469,7 +9461,7 @@
         <v>6722</v>
       </c>
     </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="2" t="s">
         <v>44</v>
       </c>
@@ -9540,7 +9532,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="2" t="s">
         <v>44</v>
       </c>
@@ -9611,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
@@ -9682,7 +9674,7 @@
         <v>-785</v>
       </c>
     </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
@@ -9771,7 +9763,7 @@
         <v>-6084</v>
       </c>
     </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
         <v>85</v>
       </c>
@@ -9869,7 +9861,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9895,7 +9887,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
         <v>90</v>
       </c>
@@ -9966,7 +9958,7 @@
         <v>-17620</v>
       </c>
     </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
         <v>92</v>
       </c>
@@ -10037,7 +10029,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
@@ -10108,7 +10100,7 @@
         <v>-571</v>
       </c>
     </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
         <v>94</v>
       </c>
@@ -10197,7 +10189,7 @@
         <v>-5174</v>
       </c>
     </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
         <v>91</v>
       </c>
@@ -10286,7 +10278,7 @@
         <v>-22138</v>
       </c>
     </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10312,7 +10304,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
         <v>96</v>
       </c>
@@ -10383,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
@@ -10472,7 +10464,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
         <v>95</v>
       </c>
@@ -10561,7 +10553,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
         <v>97</v>
       </c>
@@ -10632,7 +10624,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
@@ -10721,7 +10713,7 @@
         <v>-1659</v>
       </c>
     </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
         <v>45</v>
       </c>
@@ -10805,7 +10797,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
         <v>80</v>
       </c>
@@ -10878,7 +10870,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="2" t="s">
         <v>81</v>
       </c>
@@ -10951,7 +10943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="2" t="s">
         <v>82</v>
       </c>
@@ -11024,7 +11016,7 @@
         <v>9334</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
@@ -11101,7 +11093,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B95" s="2" t="s">
         <v>106</v>
       </c>
@@ -11166,7 +11158,7 @@
         <v>52973</v>
       </c>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>104</v>
       </c>

--- a/AMZN_Model.xlsx
+++ b/AMZN_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0645F1-A55E-4D89-AEEE-923FC2726486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CFDDA-132E-46E9-9104-148B7DF5DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1134,15 +1134,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>167.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1747272.7429785002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1211,10 +1211,10 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>79</v>
       </c>
@@ -1235,18 +1235,18 @@
       <selection pane="bottomRight" activeCell="AK32" sqref="AK32:AK33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="26" width="9.1328125" style="3"/>
-    <col min="74" max="75" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="26" width="9.140625" style="3"/>
+    <col min="74" max="75" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>279833</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>127787</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>447916.72498560004</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>326267.1892021501</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>28184.221465804694</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>197068.63549427583</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>68149.380161362526</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>79499.983233825042</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2844,11 +2844,11 @@
         <v>6976.4038955296901</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:137" x14ac:dyDescent="0.2">
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>241787</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>228035</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:137" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>1154062.5384385479</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>754757.74441970466</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>52333.582469642599</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>346971.21154920058</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:137" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>172565.2584410306</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>37742.06764211796</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>210307.32608314857</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>31546.098912472284</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>2033950.4276369016</v>
       </c>
     </row>
-    <row r="33" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>59.775511064052829</v>
       </c>
     </row>
-    <row r="34" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>10491</v>
       </c>
     </row>
-    <row r="36" spans="2:119" s="11" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0.10353840131598058</v>
       </c>
     </row>
-    <row r="37" spans="2:119" s="11" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>122</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
     </row>
-    <row r="38" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
     </row>
-    <row r="39" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
     </row>
-    <row r="40" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:119" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:119" x14ac:dyDescent="0.2">
       <c r="BY46" t="s">
         <v>75</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:119" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="48" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>8701159.2259440068</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>836.1171087380576</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>50106</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>220717</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>74575</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>66</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>22879</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>63340</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>70</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>81817</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>60351</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>16004</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>65</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>78084</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>54889</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>27226</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>236447</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>554818</v>
       </c>
     </row>
-    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>13485</v>
       </c>
     </row>
-    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>12038</v>
       </c>
     </row>
-    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>88</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>6722</v>
       </c>
     </row>
-    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>44</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>44</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>-785</v>
       </c>
     </row>
-    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>-6084</v>
       </c>
     </row>
-    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>85</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>392.02199999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -9887,7 +9887,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>90</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>-17620</v>
       </c>
     </row>
-    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>92</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>-571</v>
       </c>
     </row>
-    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>94</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>-5174</v>
       </c>
     </row>
-    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>91</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>-22138</v>
       </c>
     </row>
-    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -10304,7 +10304,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>96</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>95</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>97</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>-1659</v>
       </c>
     </row>
-    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>45</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>80</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>81</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>82</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>9334</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>106</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>52973</v>
       </c>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>104</v>
       </c>
